--- a/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -15,6 +15,9 @@
     <sheet name="KD0201_YEU_CAU_DAT_HANG" sheetId="1" r:id="rId1"/>
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KD0201_YEU_CAU_DAT_HANG!$A$1:$I$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -260,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -416,6 +419,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,12 +515,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,11 +599,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -868,15 +889,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SH_PRINT"/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
@@ -884,7 +905,7 @@
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,7 +1089,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="49"/>
       <c r="F10" s="24"/>
       <c r="G10" s="48"/>
@@ -1078,112 +1099,112 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="33"/>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="62">
+        <f>SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="62">
-        <f>SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="19" t="s">
-        <v>24</v>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1197,47 +1218,33 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="17"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
+  <mergeCells count="15">
     <mergeCell ref="I2:I5"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D2:H4"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B2:C5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1433,7 +1440,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="64"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="49"/>
       <c r="F12" s="24"/>
       <c r="G12" s="48"/>
@@ -1447,9 +1454,9 @@
       <c r="B13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="52"/>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>

--- a/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>FIRST_COLUMN</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>* Số hợp đồng:</t>
+  </si>
+  <si>
+    <t>cột 1</t>
+  </si>
+  <si>
+    <t>cột 2</t>
+  </si>
+  <si>
+    <t>cột 3</t>
+  </si>
+  <si>
+    <t>cột 4</t>
+  </si>
+  <si>
+    <t>cột 5</t>
+  </si>
+  <si>
+    <t>cột 6</t>
   </si>
 </sst>
 </file>
@@ -892,7 +910,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1087,14 +1105,26 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="49"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="49"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
